--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H2">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I2">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J2">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>3342.241962607729</v>
+        <v>3495.255961938212</v>
       </c>
       <c r="R2">
-        <v>3342.241962607729</v>
+        <v>31457.30365744391</v>
       </c>
       <c r="S2">
-        <v>0.01952225483111631</v>
+        <v>0.01854055769341356</v>
       </c>
       <c r="T2">
-        <v>0.01952225483111631</v>
+        <v>0.01854055769341356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H3">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I3">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J3">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>3557.621260951537</v>
+        <v>3684.129260263407</v>
       </c>
       <c r="R3">
-        <v>3557.621260951537</v>
+        <v>33157.16334237067</v>
       </c>
       <c r="S3">
-        <v>0.02078029945943945</v>
+        <v>0.01954243461529763</v>
       </c>
       <c r="T3">
-        <v>0.02078029945943945</v>
+        <v>0.01954243461529763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H4">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I4">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J4">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>2294.04304656376</v>
+        <v>2380.275764649761</v>
       </c>
       <c r="R4">
-        <v>2294.04304656376</v>
+        <v>21422.48188184785</v>
       </c>
       <c r="S4">
-        <v>0.01339965611395336</v>
+        <v>0.01262615402742946</v>
       </c>
       <c r="T4">
-        <v>0.01339965611395336</v>
+        <v>0.01262615402742946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H5">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I5">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J5">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>1778.751585878957</v>
+        <v>1856.555618514119</v>
       </c>
       <c r="R5">
-        <v>1778.751585878957</v>
+        <v>16709.00056662707</v>
       </c>
       <c r="S5">
-        <v>0.01038980484635154</v>
+        <v>0.009848084641276013</v>
       </c>
       <c r="T5">
-        <v>0.01038980484635154</v>
+        <v>0.009848084641276013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6173145464985</v>
+        <v>21.350031</v>
       </c>
       <c r="H6">
-        <v>20.6173145464985</v>
+        <v>64.050093</v>
       </c>
       <c r="I6">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="J6">
-        <v>0.07096069535952329</v>
+        <v>0.06732221160730763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>1175.929270747489</v>
+        <v>1275.33050893193</v>
       </c>
       <c r="R6">
-        <v>1175.929270747489</v>
+        <v>11477.97458038737</v>
       </c>
       <c r="S6">
-        <v>0.006868680108662623</v>
+        <v>0.006764980629890967</v>
       </c>
       <c r="T6">
-        <v>0.006868680108662623</v>
+        <v>0.006764980629890967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H7">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I7">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J7">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>21573.40530690967</v>
+        <v>21793.26205180427</v>
       </c>
       <c r="R7">
-        <v>21573.40530690967</v>
+        <v>196139.3584662384</v>
       </c>
       <c r="S7">
-        <v>0.1260116773974806</v>
+        <v>0.1156021867351585</v>
       </c>
       <c r="T7">
-        <v>0.1260116773974806</v>
+        <v>0.1156021867351585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H8">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I8">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J8">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>22963.62927928284</v>
+        <v>22970.90550047092</v>
       </c>
       <c r="R8">
-        <v>22963.62927928284</v>
+        <v>206738.1495042383</v>
       </c>
       <c r="S8">
-        <v>0.1341320669337965</v>
+        <v>0.1218489871240396</v>
       </c>
       <c r="T8">
-        <v>0.1341320669337965</v>
+        <v>0.1218489871240396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H9">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I9">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J9">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>14807.52171407837</v>
+        <v>14841.2517021516</v>
       </c>
       <c r="R9">
-        <v>14807.52171407837</v>
+        <v>133571.2653193644</v>
       </c>
       <c r="S9">
-        <v>0.08649170693015269</v>
+        <v>0.07872530264525396</v>
       </c>
       <c r="T9">
-        <v>0.08649170693015269</v>
+        <v>0.07872530264525397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H10">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I10">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J10">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>11481.4335203112</v>
+        <v>11575.80547708769</v>
       </c>
       <c r="R10">
-        <v>11481.4335203112</v>
+        <v>104182.2492937892</v>
       </c>
       <c r="S10">
-        <v>0.06706380732385751</v>
+        <v>0.06140376888926426</v>
       </c>
       <c r="T10">
-        <v>0.06706380732385751</v>
+        <v>0.06140376888926426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.080036702256</v>
+        <v>133.119527</v>
       </c>
       <c r="H11">
-        <v>133.080036702256</v>
+        <v>399.358581</v>
       </c>
       <c r="I11">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="J11">
-        <v>0.4580350133168423</v>
+        <v>0.4197605598679787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>7590.353736777543</v>
+        <v>7951.810192579476</v>
       </c>
       <c r="R11">
-        <v>7590.353736777543</v>
+        <v>71566.29173321529</v>
       </c>
       <c r="S11">
-        <v>0.04433575473155495</v>
+        <v>0.04218031447426224</v>
       </c>
       <c r="T11">
-        <v>0.04433575473155495</v>
+        <v>0.04218031447426224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.1951909532509</v>
+        <v>67.205597</v>
       </c>
       <c r="H12">
-        <v>67.1951909532509</v>
+        <v>201.616791</v>
       </c>
       <c r="I12">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J12">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>10892.91170209827</v>
+        <v>11002.36171038191</v>
       </c>
       <c r="R12">
-        <v>10892.91170209827</v>
+        <v>99021.2553934372</v>
       </c>
       <c r="S12">
-        <v>0.06362621272796523</v>
+        <v>0.0583619409498188</v>
       </c>
       <c r="T12">
-        <v>0.06362621272796523</v>
+        <v>0.05836194094981881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.1951909532509</v>
+        <v>67.205597</v>
       </c>
       <c r="H13">
-        <v>67.1951909532509</v>
+        <v>201.616791</v>
       </c>
       <c r="I13">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J13">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>11594.86796545883</v>
+        <v>11596.89680830771</v>
       </c>
       <c r="R13">
-        <v>11594.86796545883</v>
+        <v>104372.0712747694</v>
       </c>
       <c r="S13">
-        <v>0.06772638536864709</v>
+        <v>0.06151564768943623</v>
       </c>
       <c r="T13">
-        <v>0.06772638536864709</v>
+        <v>0.06151564768943624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.1951909532509</v>
+        <v>67.205597</v>
       </c>
       <c r="H14">
-        <v>67.1951909532509</v>
+        <v>201.616791</v>
       </c>
       <c r="I14">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J14">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>7476.660465220908</v>
+        <v>7492.628642455773</v>
       </c>
       <c r="R14">
-        <v>7476.660465220908</v>
+        <v>67433.65778210196</v>
       </c>
       <c r="S14">
-        <v>0.04367166486470996</v>
+        <v>0.03974458956183018</v>
       </c>
       <c r="T14">
-        <v>0.04367166486470996</v>
+        <v>0.03974458956183019</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.1951909532509</v>
+        <v>67.205597</v>
       </c>
       <c r="H15">
-        <v>67.1951909532509</v>
+        <v>201.616791</v>
       </c>
       <c r="I15">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J15">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>5797.241546757767</v>
+        <v>5844.06311662712</v>
       </c>
       <c r="R15">
-        <v>5797.241546757767</v>
+        <v>52596.56804964408</v>
       </c>
       <c r="S15">
-        <v>0.03386206865317343</v>
+        <v>0.03099978672740499</v>
       </c>
       <c r="T15">
-        <v>0.03386206865317343</v>
+        <v>0.030999786727405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.1951909532509</v>
+        <v>67.205597</v>
       </c>
       <c r="H16">
-        <v>67.1951909532509</v>
+        <v>201.616791</v>
       </c>
       <c r="I16">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="J16">
-        <v>0.2312724804243933</v>
+        <v>0.2119167612650978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>3832.545296681921</v>
+        <v>4014.483549231576</v>
       </c>
       <c r="R16">
-        <v>3832.545296681921</v>
+        <v>36130.35194308418</v>
       </c>
       <c r="S16">
-        <v>0.02238614880989757</v>
+        <v>0.02129479633660759</v>
       </c>
       <c r="T16">
-        <v>0.02238614880989757</v>
+        <v>0.02129479633660759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.1985508011557</v>
+        <v>67.69602866666668</v>
       </c>
       <c r="H17">
-        <v>46.1985508011557</v>
+        <v>203.088086</v>
       </c>
       <c r="I17">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="J17">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>7489.177834050693</v>
+        <v>11082.65125220225</v>
       </c>
       <c r="R17">
-        <v>7489.177834050693</v>
+        <v>99743.86126982022</v>
       </c>
       <c r="S17">
-        <v>0.0437447796382195</v>
+        <v>0.05878783619139998</v>
       </c>
       <c r="T17">
-        <v>0.0437447796382195</v>
+        <v>0.05878783619139998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.1985508011557</v>
+        <v>67.69602866666668</v>
       </c>
       <c r="H18">
-        <v>46.1985508011557</v>
+        <v>203.088086</v>
       </c>
       <c r="I18">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="J18">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>7971.792164525832</v>
+        <v>11681.52495958891</v>
       </c>
       <c r="R18">
-        <v>7971.792164525832</v>
+        <v>105133.7246363002</v>
       </c>
       <c r="S18">
-        <v>0.04656376164194406</v>
+        <v>0.06196455705069688</v>
       </c>
       <c r="T18">
-        <v>0.04656376164194406</v>
+        <v>0.06196455705069688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.1985508011557</v>
+        <v>67.69602866666668</v>
       </c>
       <c r="H19">
-        <v>46.1985508011557</v>
+        <v>203.088086</v>
       </c>
       <c r="I19">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="J19">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>5140.410696441209</v>
+        <v>7547.305968703378</v>
       </c>
       <c r="R19">
-        <v>5140.410696441209</v>
+        <v>67925.75371833041</v>
       </c>
       <c r="S19">
-        <v>0.03002547651404121</v>
+        <v>0.04003462500783316</v>
       </c>
       <c r="T19">
-        <v>0.03002547651404121</v>
+        <v>0.04003462500783316</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.1985508011557</v>
+        <v>67.69602866666668</v>
       </c>
       <c r="H20">
-        <v>46.1985508011557</v>
+        <v>203.088086</v>
       </c>
       <c r="I20">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="J20">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>3985.763777214205</v>
+        <v>5886.710064832828</v>
       </c>
       <c r="R20">
-        <v>3985.763777214205</v>
+        <v>52980.39058349545</v>
       </c>
       <c r="S20">
-        <v>0.02328110801849236</v>
+        <v>0.03122600712793254</v>
       </c>
       <c r="T20">
-        <v>0.02328110801849236</v>
+        <v>0.03122600712793254</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.1985508011557</v>
+        <v>67.69602866666668</v>
       </c>
       <c r="H21">
-        <v>46.1985508011557</v>
+        <v>203.088086</v>
       </c>
       <c r="I21">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="J21">
-        <v>0.1590062217879404</v>
+        <v>0.2134632201176521</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N21">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P21">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q21">
-        <v>2634.980808517577</v>
+        <v>4043.779172598416</v>
       </c>
       <c r="R21">
-        <v>2634.980808517577</v>
+        <v>36394.01255338574</v>
       </c>
       <c r="S21">
-        <v>0.01539109597524329</v>
+        <v>0.02145019473978954</v>
       </c>
       <c r="T21">
-        <v>0.01539109597524329</v>
+        <v>0.02145019473978954</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.454461011503</v>
+        <v>27.76086666666666</v>
       </c>
       <c r="H22">
-        <v>23.454461011503</v>
+        <v>83.28259999999999</v>
       </c>
       <c r="I22">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="J22">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N22">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P22">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q22">
-        <v>3802.167524106845</v>
+        <v>4544.786596573955</v>
       </c>
       <c r="R22">
-        <v>3802.167524106845</v>
+        <v>40903.07936916559</v>
       </c>
       <c r="S22">
-        <v>0.02220871024499199</v>
+        <v>0.0241077846703124</v>
       </c>
       <c r="T22">
-        <v>0.02220871024499199</v>
+        <v>0.0241077846703124</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.454461011503</v>
+        <v>27.76086666666666</v>
       </c>
       <c r="H23">
-        <v>23.454461011503</v>
+        <v>83.28259999999999</v>
       </c>
       <c r="I23">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="J23">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N23">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P23">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q23">
-        <v>4047.18514482058</v>
+        <v>4790.373427417398</v>
       </c>
       <c r="R23">
-        <v>4047.18514482058</v>
+        <v>43113.36084675659</v>
       </c>
       <c r="S23">
-        <v>0.02363987426100334</v>
+        <v>0.02541049807830858</v>
       </c>
       <c r="T23">
-        <v>0.02363987426100334</v>
+        <v>0.02541049807830858</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.454461011503</v>
+        <v>27.76086666666666</v>
       </c>
       <c r="H24">
-        <v>23.454461011503</v>
+        <v>83.28259999999999</v>
       </c>
       <c r="I24">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="J24">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N24">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P24">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q24">
-        <v>2609.726066553959</v>
+        <v>3095.008064969088</v>
       </c>
       <c r="R24">
-        <v>2609.726066553959</v>
+        <v>27855.07258472179</v>
       </c>
       <c r="S24">
-        <v>0.01524358136863379</v>
+        <v>0.01641744587950553</v>
       </c>
       <c r="T24">
-        <v>0.01524358136863379</v>
+        <v>0.01641744587950553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.454461011503</v>
+        <v>27.76086666666666</v>
       </c>
       <c r="H25">
-        <v>23.454461011503</v>
+        <v>83.28259999999999</v>
       </c>
       <c r="I25">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="J25">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N25">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P25">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q25">
-        <v>2023.525402692781</v>
+        <v>2414.028953158022</v>
       </c>
       <c r="R25">
-        <v>2023.525402692781</v>
+        <v>21726.2605784222</v>
       </c>
       <c r="S25">
-        <v>0.01181954478776981</v>
+        <v>0.01280519754976052</v>
       </c>
       <c r="T25">
-        <v>0.01181954478776981</v>
+        <v>0.01280519754976052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.454461011503</v>
+        <v>27.76086666666666</v>
       </c>
       <c r="H26">
-        <v>23.454461011503</v>
+        <v>83.28259999999999</v>
       </c>
       <c r="I26">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="J26">
-        <v>0.08072558911130071</v>
+        <v>0.08753724714196366</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N26">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P26">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q26">
-        <v>1337.748772801075</v>
+        <v>1658.277695914888</v>
       </c>
       <c r="R26">
-        <v>1337.748772801075</v>
+        <v>14924.499263234</v>
       </c>
       <c r="S26">
-        <v>0.007813878448901775</v>
+        <v>0.008796320964076622</v>
       </c>
       <c r="T26">
-        <v>0.007813878448901775</v>
+        <v>0.008796320964076622</v>
       </c>
     </row>
   </sheetData>
